--- a/excel/召唤技能表.xlsx
+++ b/excel/召唤技能表.xlsx
@@ -79,10 +79,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -108,25 +108,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -137,8 +129,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -158,16 +151,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -182,41 +182,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -236,12 +205,43 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -252,187 +252,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -446,17 +446,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -465,7 +461,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -481,6 +492,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -503,43 +523,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -551,10 +551,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -563,133 +563,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1054,10 +1054,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H42"/>
+  <dimension ref="A1:H62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="F42" sqref="F42"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="F52" sqref="F52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
@@ -1487,7 +1487,7 @@
         <v>1</v>
       </c>
       <c r="F18" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G18" s="1">
         <v>0</v>
@@ -1947,7 +1947,7 @@
         <v>1</v>
       </c>
       <c r="F38" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G38" s="1">
         <v>0</v>
@@ -1967,10 +1967,10 @@
         <v>1</v>
       </c>
       <c r="D39" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F39" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G39" s="1">
         <v>0</v>
@@ -1993,7 +1993,7 @@
         <v>2</v>
       </c>
       <c r="F40" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G40" s="1">
         <v>0</v>
@@ -2013,10 +2013,10 @@
         <v>1</v>
       </c>
       <c r="D41" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F41" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G41" s="1">
         <v>0</v>
@@ -2039,12 +2039,472 @@
         <v>1</v>
       </c>
       <c r="F42" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G42" s="1">
         <v>0</v>
       </c>
       <c r="H42" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" s="1">
+        <v>1041</v>
+      </c>
+      <c r="B43" s="1">
+        <v>1007</v>
+      </c>
+      <c r="C43" s="1">
+        <v>1</v>
+      </c>
+      <c r="D43" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F43" s="1">
+        <v>6</v>
+      </c>
+      <c r="G43" s="1">
+        <v>0</v>
+      </c>
+      <c r="H43" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="1">
+        <v>1042</v>
+      </c>
+      <c r="B44" s="1">
+        <v>1007</v>
+      </c>
+      <c r="C44" s="1">
+        <v>1</v>
+      </c>
+      <c r="D44" s="1">
+        <v>2</v>
+      </c>
+      <c r="F44" s="1">
+        <v>4</v>
+      </c>
+      <c r="G44" s="1">
+        <v>0</v>
+      </c>
+      <c r="H44" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="1">
+        <v>1043</v>
+      </c>
+      <c r="B45" s="1">
+        <v>1007</v>
+      </c>
+      <c r="C45" s="1">
+        <v>1</v>
+      </c>
+      <c r="D45" s="1">
+        <v>0</v>
+      </c>
+      <c r="F45" s="1">
+        <v>4</v>
+      </c>
+      <c r="G45" s="1">
+        <v>0</v>
+      </c>
+      <c r="H45" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="1">
+        <v>1044</v>
+      </c>
+      <c r="B46" s="1">
+        <v>1009</v>
+      </c>
+      <c r="C46" s="1">
+        <v>1</v>
+      </c>
+      <c r="D46" s="1">
+        <v>1</v>
+      </c>
+      <c r="F46" s="1">
+        <v>6</v>
+      </c>
+      <c r="G46" s="1">
+        <v>0</v>
+      </c>
+      <c r="H46" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" s="1">
+        <v>1045</v>
+      </c>
+      <c r="B47" s="1">
+        <v>1009</v>
+      </c>
+      <c r="C47" s="1">
+        <v>1</v>
+      </c>
+      <c r="D47" s="1">
+        <v>2</v>
+      </c>
+      <c r="F47" s="1">
+        <v>4</v>
+      </c>
+      <c r="G47" s="1">
+        <v>0</v>
+      </c>
+      <c r="H47" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" s="1">
+        <v>1046</v>
+      </c>
+      <c r="B48" s="1">
+        <v>1009</v>
+      </c>
+      <c r="C48" s="1">
+        <v>1</v>
+      </c>
+      <c r="D48" s="1">
+        <v>0</v>
+      </c>
+      <c r="F48" s="1">
+        <v>6</v>
+      </c>
+      <c r="G48" s="1">
+        <v>0</v>
+      </c>
+      <c r="H48" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" s="1">
+        <v>1047</v>
+      </c>
+      <c r="B49" s="1">
+        <v>1009</v>
+      </c>
+      <c r="C49" s="1">
+        <v>1</v>
+      </c>
+      <c r="D49" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F49" s="1">
+        <v>6</v>
+      </c>
+      <c r="G49" s="1">
+        <v>0</v>
+      </c>
+      <c r="H49" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" s="1">
+        <v>1048</v>
+      </c>
+      <c r="B50" s="1">
+        <v>1011</v>
+      </c>
+      <c r="C50" s="1">
+        <v>1</v>
+      </c>
+      <c r="D50" s="1">
+        <v>2</v>
+      </c>
+      <c r="F50" s="1">
+        <v>4</v>
+      </c>
+      <c r="G50" s="1">
+        <v>0</v>
+      </c>
+      <c r="H50" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" s="1">
+        <v>1049</v>
+      </c>
+      <c r="B51" s="1">
+        <v>1011</v>
+      </c>
+      <c r="C51" s="1">
+        <v>1</v>
+      </c>
+      <c r="D51" s="1">
+        <v>2</v>
+      </c>
+      <c r="F51" s="1">
+        <v>6</v>
+      </c>
+      <c r="G51" s="1">
+        <v>0</v>
+      </c>
+      <c r="H51" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" s="1">
+        <v>1050</v>
+      </c>
+      <c r="B52" s="1">
+        <v>1011</v>
+      </c>
+      <c r="C52" s="1">
+        <v>1</v>
+      </c>
+      <c r="D52" s="1">
+        <v>0</v>
+      </c>
+      <c r="F52" s="1">
+        <v>4</v>
+      </c>
+      <c r="G52" s="1">
+        <v>0</v>
+      </c>
+      <c r="H52" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53" s="1">
+        <v>1051</v>
+      </c>
+      <c r="B53" s="1">
+        <v>1011</v>
+      </c>
+      <c r="C53" s="1">
+        <v>1</v>
+      </c>
+      <c r="D53" s="1">
+        <v>3</v>
+      </c>
+      <c r="F53" s="1">
+        <v>6</v>
+      </c>
+      <c r="G53" s="1">
+        <v>0</v>
+      </c>
+      <c r="H53" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54" s="1">
+        <v>1052</v>
+      </c>
+      <c r="B54" s="1">
+        <v>1008</v>
+      </c>
+      <c r="C54" s="1">
+        <v>1</v>
+      </c>
+      <c r="D54" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F54" s="1">
+        <v>6</v>
+      </c>
+      <c r="G54" s="1">
+        <v>0</v>
+      </c>
+      <c r="H54" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" s="1">
+        <v>1053</v>
+      </c>
+      <c r="B55" s="1">
+        <v>1008</v>
+      </c>
+      <c r="C55" s="1">
+        <v>1</v>
+      </c>
+      <c r="D55" s="1">
+        <v>2</v>
+      </c>
+      <c r="F55" s="1">
+        <v>6</v>
+      </c>
+      <c r="G55" s="1">
+        <v>0</v>
+      </c>
+      <c r="H55" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56" s="1">
+        <v>1054</v>
+      </c>
+      <c r="B56" s="1">
+        <v>1008</v>
+      </c>
+      <c r="C56" s="1">
+        <v>1</v>
+      </c>
+      <c r="D56" s="1">
+        <v>0</v>
+      </c>
+      <c r="F56" s="1">
+        <v>4</v>
+      </c>
+      <c r="G56" s="1">
+        <v>0</v>
+      </c>
+      <c r="H56" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57" s="1">
+        <v>1055</v>
+      </c>
+      <c r="B57" s="1">
+        <v>1008</v>
+      </c>
+      <c r="C57" s="1">
+        <v>1</v>
+      </c>
+      <c r="D57" s="1">
+        <v>3</v>
+      </c>
+      <c r="F57" s="1">
+        <v>4</v>
+      </c>
+      <c r="G57" s="1">
+        <v>0</v>
+      </c>
+      <c r="H57" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58" s="1">
+        <v>1056</v>
+      </c>
+      <c r="B58" s="1">
+        <v>1008</v>
+      </c>
+      <c r="C58" s="1">
+        <v>1</v>
+      </c>
+      <c r="D58" s="1">
+        <v>1</v>
+      </c>
+      <c r="F58" s="1">
+        <v>6</v>
+      </c>
+      <c r="G58" s="1">
+        <v>0</v>
+      </c>
+      <c r="H58" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59" s="1">
+        <v>1057</v>
+      </c>
+      <c r="B59" s="1">
+        <v>1009</v>
+      </c>
+      <c r="C59" s="1">
+        <v>1</v>
+      </c>
+      <c r="D59" s="1">
+        <v>2</v>
+      </c>
+      <c r="F59" s="1">
+        <v>6</v>
+      </c>
+      <c r="G59" s="1">
+        <v>0</v>
+      </c>
+      <c r="H59" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60" s="1">
+        <v>1058</v>
+      </c>
+      <c r="B60" s="1">
+        <v>1011</v>
+      </c>
+      <c r="C60" s="1">
+        <v>1</v>
+      </c>
+      <c r="D60" s="1">
+        <v>3</v>
+      </c>
+      <c r="F60" s="1">
+        <v>2</v>
+      </c>
+      <c r="G60" s="1">
+        <v>0</v>
+      </c>
+      <c r="H60" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="A61" s="1">
+        <v>1059</v>
+      </c>
+      <c r="B61" s="1">
+        <v>1007</v>
+      </c>
+      <c r="C61" s="1">
+        <v>1</v>
+      </c>
+      <c r="D61" s="1">
+        <v>3</v>
+      </c>
+      <c r="F61" s="1">
+        <v>3</v>
+      </c>
+      <c r="G61" s="1">
+        <v>0</v>
+      </c>
+      <c r="H61" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="A62" s="1">
+        <v>1060</v>
+      </c>
+      <c r="B62" s="1">
+        <v>1007</v>
+      </c>
+      <c r="C62" s="1">
+        <v>1</v>
+      </c>
+      <c r="D62" s="1">
+        <v>0</v>
+      </c>
+      <c r="F62" s="1">
+        <v>6</v>
+      </c>
+      <c r="G62" s="1">
+        <v>0</v>
+      </c>
+      <c r="H62" s="1">
         <v>0</v>
       </c>
     </row>
